--- a/周数据/《实施上线数据统计表》-陈乾维.xlsx
+++ b/周数据/《实施上线数据统计表》-陈乾维.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -504,9 +504,6 @@
     <t>大卤爷驻店</t>
   </si>
   <si>
-    <t>未调休</t>
-  </si>
-  <si>
     <t>熊牛日式炭烧肉上线</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
     <t>七秒鱼上线</t>
   </si>
   <si>
+    <t>未调休</t>
+  </si>
+  <si>
     <t>松匠日本料理驻店</t>
   </si>
 </sst>
@@ -527,8 +527,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -667,7 +667,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,7 +675,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,6 +691,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,70 +719,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,6 +740,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -803,8 +771,40 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,31 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,55 +927,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +969,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,7 +999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,13 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,60 +1537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1606,7 +1552,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,8 +1575,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,10 +1642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,133 +1654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,8 +2494,8 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3435,25 +3435,33 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="77"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="87"/>
+      <c r="B39" s="101">
+        <v>22</v>
+      </c>
+      <c r="C39" s="85">
+        <v>1</v>
+      </c>
+      <c r="D39" s="86">
+        <v>0</v>
+      </c>
+      <c r="E39" s="87">
+        <v>0</v>
+      </c>
       <c r="F39" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="89">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="90" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="114" t="e">
+      <c r="I39" s="114">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:9">
@@ -16437,8 +16445,8 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -22271,7 +22279,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -23945,8 +23953,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -24057,7 +24065,7 @@
         <v>159</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24071,7 +24079,7 @@
         <v>43220</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>154</v>
@@ -24088,7 +24096,7 @@
         <v>43221</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>154</v>
@@ -24105,10 +24113,10 @@
         <v>43225</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24122,10 +24130,10 @@
         <v>43239</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24142,7 +24150,7 @@
         <v>165</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:4">

--- a/周数据/《实施上线数据统计表》-陈乾维.xlsx
+++ b/周数据/《实施上线数据统计表》-陈乾维.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
   </si>
   <si>
     <t>周次</t>
@@ -527,10 +530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
@@ -667,7 +670,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,7 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,25 +700,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,44 +714,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,9 +730,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,7 +762,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,6 +779,35 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +900,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,19 +942,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,13 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,96 +1045,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,26 +1540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1576,31 +1559,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,6 +1593,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1642,10 +1645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,34 +1657,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1690,97 +1693,97 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,8 +2497,8 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="77"/>
-      <c r="B39" s="101">
+      <c r="B39" s="108">
         <v>22</v>
       </c>
       <c r="C39" s="85">
@@ -3464,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:9">
+    <row r="40" spans="1:9">
       <c r="A40" s="91"/>
       <c r="B40" s="103"/>
       <c r="C40" s="93"/>
@@ -3488,11 +3491,21 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="77"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="107"/>
+      <c r="A41" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="99">
+        <v>23</v>
+      </c>
+      <c r="C41" s="105">
+        <v>0</v>
+      </c>
+      <c r="D41" s="106">
+        <v>0</v>
+      </c>
+      <c r="E41" s="107">
+        <v>0</v>
+      </c>
       <c r="F41" s="82">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3512,10 +3525,18 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="77"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="87"/>
+      <c r="B42" s="101">
+        <v>24</v>
+      </c>
+      <c r="C42" s="85">
+        <v>0</v>
+      </c>
+      <c r="D42" s="86">
+        <v>0</v>
+      </c>
+      <c r="E42" s="87">
+        <v>0</v>
+      </c>
       <c r="F42" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3602,7 +3623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:9">
+    <row r="46" spans="1:9">
       <c r="A46" s="91"/>
       <c r="B46" s="103"/>
       <c r="C46" s="93"/>
@@ -16445,7 +16466,7 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -16465,51 +16486,51 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="27" spans="1:15">
+    <row r="1" s="39" customFormat="1" ht="28.5" spans="1:15">
       <c r="A1" s="41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -16520,43 +16541,43 @@
         <v>43449</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="45">
         <v>76116790</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1">
         <v>17551039639</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="45">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -16565,43 +16586,43 @@
         <v>43451</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="45">
         <v>76108278</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1">
         <v>17551039639</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="49">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -16612,43 +16633,43 @@
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="45">
         <v>76112662</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1">
         <v>17551039639</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1">
         <v>18260050589</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -16657,43 +16678,43 @@
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="45">
         <v>76117065</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1">
         <v>17551039639</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5" s="1">
         <v>18726666788</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -16701,7 +16722,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -16722,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -16743,7 +16764,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -16767,43 +16788,43 @@
         <v>43119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="45">
         <v>76125388</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1">
         <v>17551039639</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9" s="1">
         <v>13770545888</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16812,43 +16833,43 @@
         <v>43124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="45">
         <v>76118589</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1">
         <v>17551039639</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N10" s="1">
         <v>13399795778</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -16859,43 +16880,43 @@
         <v>43128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="45">
         <v>76125078</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1">
         <v>17551039639</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N11" s="1">
         <v>18655551580</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -16906,43 +16927,43 @@
         <v>43138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="45">
         <v>76121670</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1">
         <v>17551039639</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N12" s="1">
         <v>15821227798</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16950,7 +16971,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -16971,7 +16992,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -16995,43 +17016,43 @@
         <v>43168</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="45">
         <v>76130229</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1">
         <v>17551039639</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N15" s="1">
         <v>18994050367</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -17042,43 +17063,43 @@
         <v>43178</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="45">
         <v>76136526</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" s="1">
         <v>17551039639</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N16" s="1">
         <v>18652060506</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -17089,43 +17110,43 @@
         <v>43183</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="45">
         <v>76136910</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" s="1">
         <v>17551039639</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N17" s="1">
         <v>13665212229</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -17134,43 +17155,43 @@
         <v>43185</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" s="45">
         <v>76138656</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="1">
         <v>17551039639</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N18" s="1">
         <v>13855700368</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -17179,43 +17200,43 @@
         <v>43187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="45">
         <v>76118117</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="1">
         <v>17551039639</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N19" s="1">
         <v>13451825178</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -17224,43 +17245,43 @@
         <v>43187</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="45">
         <v>76118257</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" s="1">
         <v>17551039639</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N20" s="1">
         <v>13451825178</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -17269,43 +17290,43 @@
         <v>43187</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" s="45">
         <v>76150913</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21" s="1">
         <v>17551039639</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N21" s="1">
         <v>18913027512</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -17314,43 +17335,43 @@
         <v>43187</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="45">
         <v>76133055</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22" s="1">
         <v>17551039639</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N22" s="1">
         <v>13357838381</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -17361,43 +17382,43 @@
         <v>43213</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="45">
         <v>76158193</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23" s="1">
         <v>17551039639</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N23" s="1">
         <v>13404177973</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -17406,43 +17427,43 @@
         <v>43213</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="45">
         <v>76158202</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" s="1">
         <v>17551039639</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N24" s="1">
         <v>15951760818</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -17451,43 +17472,43 @@
         <v>43214</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" s="45">
         <v>76161778</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25" s="1">
         <v>17551039639</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N25" s="1">
         <v>13912902936</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -17496,43 +17517,43 @@
         <v>43214</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="45">
         <v>76159155</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26" s="1">
         <v>17551039639</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N26" s="1">
         <v>15821227798</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -17541,43 +17562,43 @@
         <v>43216</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="45">
         <v>76162208</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" s="1">
         <v>17551039639</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N27" s="1">
         <v>15996453948</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -17586,43 +17607,43 @@
         <v>43216</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" s="45">
         <v>76161176</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28" s="1">
         <v>17551039639</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N28" s="1">
         <v>13912978719</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -17631,43 +17652,43 @@
         <v>43220</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" s="45">
         <v>76163061</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29" s="1">
         <v>17551039639</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N29" s="1">
         <v>15850562334</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -17678,43 +17699,43 @@
         <v>43229</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="45">
         <v>76167635</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30" s="1">
         <v>17551039639</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N30" s="1">
         <v>19951926016</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -17725,43 +17746,43 @@
         <v>43237</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="45">
         <v>76170769</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K31" s="1">
         <v>17551039639</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N31" s="1">
         <v>15062214315</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -17772,43 +17793,43 @@
         <v>43242</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" s="45">
         <v>76171031</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K32" s="1">
         <v>17551039639</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N32" s="1">
         <v>15062214315</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -22298,22 +22319,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22321,43 +22342,43 @@
         <v>50</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="19">
         <v>43049</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="19">
         <v>43073</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -22365,43 +22386,43 @@
         <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="19">
         <v>43084</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="19">
         <v>43073</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
@@ -22409,43 +22430,43 @@
         <v>52</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="19">
         <v>43094</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="19">
         <v>43459</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -22453,64 +22474,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="19">
         <v>43094</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="27"/>
       <c r="B9" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="19">
         <v>43459</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="19">
         <v>43102</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -22518,64 +22539,64 @@
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="19">
         <v>43094</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="27"/>
       <c r="B12" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="19">
         <v>43459</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8"/>
       <c r="B13" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="19">
         <v>43102</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -22583,85 +22604,85 @@
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="19">
         <v>43094</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="27"/>
       <c r="B15" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="19">
         <v>43459</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27"/>
       <c r="B16" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="19">
         <v>43102</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8"/>
       <c r="B17" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="19">
         <v>43116</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -22669,127 +22690,127 @@
         <v>4</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="19">
         <v>43094</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="27"/>
       <c r="B19" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="19">
         <v>43459</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="27"/>
       <c r="B20" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="19">
         <v>43102</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="27"/>
       <c r="B21" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" s="19">
         <v>43459</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="27"/>
       <c r="B22" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C22" s="19">
         <v>43461</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8"/>
       <c r="B23" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="19">
         <v>43115</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -22797,106 +22818,106 @@
         <v>5</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="19">
         <v>43094</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="27"/>
       <c r="B25" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="19">
         <v>43459</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="27"/>
       <c r="B26" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" s="19">
         <v>43459</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C27" s="19">
         <v>43461</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8"/>
       <c r="B28" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" s="19">
         <v>43115</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -22904,127 +22925,127 @@
         <v>6</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="19">
         <v>43094</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="27"/>
       <c r="B30" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="19">
         <v>43459</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="27"/>
       <c r="B31" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" s="19">
         <v>43459</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="27"/>
       <c r="B32" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C32" s="19">
         <v>43461</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="27"/>
       <c r="B33" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" s="19">
         <v>43115</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8"/>
       <c r="B34" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="19">
         <v>43131</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -23032,169 +23053,169 @@
         <v>9</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="19">
         <v>43094</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="27"/>
       <c r="B36" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="19">
         <v>43459</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="27"/>
       <c r="B37" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="19">
         <v>43459</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="27"/>
       <c r="B38" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" s="19">
         <v>43461</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="27"/>
       <c r="B39" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" s="19">
         <v>43115</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="27"/>
       <c r="B40" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="19">
         <v>43131</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="27"/>
       <c r="B41" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" s="19">
         <v>43158</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8"/>
       <c r="B42" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" s="19">
         <v>43137</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -23202,169 +23223,169 @@
         <v>10</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="19">
         <v>43094</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="27"/>
       <c r="B44" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="19">
         <v>43459</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="27"/>
       <c r="B45" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="19">
         <v>43459</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="27"/>
       <c r="B46" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="19">
         <v>43461</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="27"/>
       <c r="B47" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" s="19">
         <v>43115</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="27"/>
       <c r="B48" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="19">
         <v>43131</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="27"/>
       <c r="B49" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C49" s="19">
         <v>43158</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8"/>
       <c r="B50" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C50" s="19">
         <v>43137</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
@@ -23372,148 +23393,148 @@
         <v>11</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="19">
         <v>43094</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="27"/>
       <c r="B52" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" s="19">
         <v>43459</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="27"/>
       <c r="B53" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" s="19">
         <v>43461</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="27"/>
       <c r="B54" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="19">
         <v>43158</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="27"/>
       <c r="B55" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" s="19">
         <v>43137</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="27"/>
       <c r="B56" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="33">
         <v>43172</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8"/>
       <c r="B57" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="19">
         <v>43171</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
@@ -23521,106 +23542,106 @@
         <v>12</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="19">
         <v>43094</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="27"/>
       <c r="B59" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="19">
         <v>43459</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="27"/>
       <c r="B60" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C60" s="19">
         <v>43158</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="27"/>
       <c r="B61" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="19">
         <v>43137</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="27"/>
       <c r="B62" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" s="33">
         <v>43172</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
@@ -23628,22 +23649,22 @@
         <v>19</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C63" s="19">
         <v>43222</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="31" t="s">
         <v>126</v>
-      </c>
-      <c r="G63" s="31" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:7">
@@ -23651,22 +23672,22 @@
         <v>20</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" s="19">
         <v>43222</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="31" t="s">
         <v>126</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:7">
@@ -23674,22 +23695,22 @@
         <v>21</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" s="19">
         <v>43222</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="31" t="s">
         <v>126</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -23971,33 +23992,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9">
         <v>43064</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24005,16 +24026,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="12">
         <v>43085</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24022,16 +24043,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="12">
         <v>43092</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24039,16 +24060,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="12">
         <v>43128</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24056,16 +24077,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="12">
         <v>43190</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24073,16 +24094,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="12">
         <v>43220</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24090,16 +24111,16 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="12">
         <v>43221</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24107,16 +24128,16 @@
         <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="12">
         <v>43225</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24124,16 +24145,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="13">
         <v>43239</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24141,16 +24162,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="13">
         <v>43240</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:4">
